--- a/results/benmark记录(new).xlsx
+++ b/results/benmark记录(new).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\github\wsb_meta\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD7A1F0-222A-4D0E-B677-A4692F02449D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424B09A3-A232-4305-A88E-23CE6EBEF700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="21760" windowHeight="13840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gurobi结果" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="元启发" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="85">
   <si>
     <t>30n20b8</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -242,10 +241,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>neos-3754480-nidda</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Easy&amp;Binary)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -354,6 +349,10 @@
   </si>
   <si>
     <t>值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>traininstance2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -874,21 +873,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V90"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="G62" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M66" sqref="M66:O90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.375" customWidth="1"/>
-    <col min="2" max="2" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="10.625" customWidth="1"/>
-    <col min="6" max="10" width="10.625" customWidth="1"/>
-    <col min="18" max="19" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.58203125" customWidth="1"/>
+    <col min="4" max="4" width="10.58203125" customWidth="1"/>
+    <col min="6" max="10" width="10.58203125" customWidth="1"/>
+    <col min="18" max="19" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -896,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D1" s="16"/>
       <c r="F1" s="16"/>
@@ -906,10 +905,10 @@
       <c r="J1" s="16"/>
       <c r="K1" s="17"/>
       <c r="M1" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O1" s="16"/>
       <c r="P1" s="16"/>
@@ -920,7 +919,7 @@
       <c r="U1" s="16"/>
       <c r="V1" s="17"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
@@ -978,7 +977,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
@@ -1030,7 +1029,7 @@
       </c>
       <c r="V3" s="11"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>12</v>
       </c>
@@ -1088,7 +1087,7 @@
       </c>
       <c r="V4" s="11"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B5" s="10"/>
       <c r="C5" s="6">
         <v>0.01</v>
@@ -1138,7 +1137,7 @@
       </c>
       <c r="V5" s="11"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
@@ -1198,7 +1197,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B7" s="10"/>
       <c r="C7" s="6">
         <v>1</v>
@@ -1252,7 +1251,7 @@
       </c>
       <c r="V7" s="11"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B8" s="10"/>
       <c r="C8" s="6">
         <v>2</v>
@@ -1306,7 +1305,7 @@
       </c>
       <c r="V8" s="11"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>3</v>
       </c>
@@ -1364,7 +1363,7 @@
       </c>
       <c r="V9" s="11"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="6">
         <v>1</v>
@@ -1418,7 +1417,7 @@
       </c>
       <c r="V10" s="11"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
@@ -1476,7 +1475,7 @@
       </c>
       <c r="V11" s="11"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B12" s="10"/>
       <c r="C12" s="6">
         <v>0.1</v>
@@ -1526,7 +1525,7 @@
       </c>
       <c r="V12" s="11"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B13" s="10"/>
       <c r="C13" s="6">
         <v>0.3</v>
@@ -1576,7 +1575,7 @@
       </c>
       <c r="V13" s="11"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B14" s="10"/>
       <c r="C14" s="6">
         <v>0.5</v>
@@ -1626,7 +1625,7 @@
       </c>
       <c r="V14" s="11"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B15" s="10"/>
       <c r="C15" s="6">
         <v>0.7</v>
@@ -1676,7 +1675,7 @@
       </c>
       <c r="V15" s="11"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B16" s="10"/>
       <c r="C16" s="6">
         <v>1</v>
@@ -1726,7 +1725,7 @@
       </c>
       <c r="V16" s="11"/>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
         <v>9</v>
       </c>
@@ -1784,7 +1783,7 @@
       </c>
       <c r="V17" s="11"/>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B18" s="10"/>
       <c r="C18" s="6">
         <v>2</v>
@@ -1838,7 +1837,7 @@
       </c>
       <c r="V18" s="11"/>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B19" s="10"/>
       <c r="C19" s="6">
         <v>3</v>
@@ -1892,7 +1891,7 @@
       </c>
       <c r="V19" s="11"/>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
         <v>6</v>
       </c>
@@ -1950,7 +1949,7 @@
       </c>
       <c r="V20" s="11"/>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B21" s="10"/>
       <c r="C21" s="6">
         <v>2</v>
@@ -2004,7 +2003,7 @@
       </c>
       <c r="V21" s="11"/>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B22" s="10"/>
       <c r="C22" s="6">
         <v>3</v>
@@ -2058,7 +2057,7 @@
       </c>
       <c r="V22" s="11"/>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>1</v>
       </c>
@@ -2116,7 +2115,7 @@
       </c>
       <c r="V23" s="11"/>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B24" s="10"/>
       <c r="C24" s="6">
         <v>1</v>
@@ -2170,7 +2169,7 @@
       </c>
       <c r="V24" s="11"/>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" s="6">
         <v>2</v>
@@ -2224,7 +2223,7 @@
       </c>
       <c r="V25" s="11"/>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B26" s="10"/>
       <c r="C26" s="6">
         <v>3</v>
@@ -2278,7 +2277,7 @@
       </c>
       <c r="V26" s="11"/>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>7</v>
       </c>
@@ -2336,7 +2335,7 @@
       </c>
       <c r="V27" s="11"/>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B28" s="10"/>
       <c r="C28" s="6">
         <v>3</v>
@@ -2386,7 +2385,7 @@
       </c>
       <c r="V28" s="11"/>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B29" s="10"/>
       <c r="C29" s="6">
         <v>5</v>
@@ -2436,7 +2435,7 @@
       </c>
       <c r="V29" s="11"/>
     </row>
-    <row r="30" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="12" t="s">
         <v>8</v>
       </c>
@@ -2494,7 +2493,7 @@
       </c>
       <c r="V30" s="14"/>
     </row>
-    <row r="31" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>10</v>
       </c>
@@ -2510,10 +2509,10 @@
       <c r="J31" s="16"/>
       <c r="K31" s="17"/>
       <c r="M31" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N31" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O31" s="16"/>
       <c r="P31" s="16"/>
@@ -2524,7 +2523,7 @@
       <c r="U31" s="16"/>
       <c r="V31" s="17"/>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
         <v>15</v>
       </c>
@@ -2582,7 +2581,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B33" s="5" t="s">
         <v>2</v>
       </c>
@@ -2636,7 +2635,7 @@
       </c>
       <c r="V33" s="11"/>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>12</v>
       </c>
@@ -2694,7 +2693,7 @@
       </c>
       <c r="V34" s="11"/>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B35" s="10"/>
       <c r="C35" s="21">
         <v>0.01</v>
@@ -2744,7 +2743,7 @@
       </c>
       <c r="V35" s="11"/>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B36" s="5" t="s">
         <v>13</v>
       </c>
@@ -2806,7 +2805,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B37" s="10"/>
       <c r="C37" s="6">
         <v>1</v>
@@ -2862,7 +2861,7 @@
       </c>
       <c r="V37" s="11"/>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B38" s="10"/>
       <c r="C38" s="6">
         <v>2</v>
@@ -2918,7 +2917,7 @@
       </c>
       <c r="V38" s="11"/>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B39" s="5" t="s">
         <v>3</v>
       </c>
@@ -2978,7 +2977,7 @@
       </c>
       <c r="V39" s="11"/>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B40" s="10"/>
       <c r="C40" s="6">
         <v>1</v>
@@ -3034,7 +3033,7 @@
       </c>
       <c r="V40" s="11"/>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B41" s="5" t="s">
         <v>5</v>
       </c>
@@ -3094,7 +3093,7 @@
       </c>
       <c r="V41" s="11"/>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B42" s="10"/>
       <c r="C42" s="21">
         <v>0.1</v>
@@ -3146,7 +3145,7 @@
       </c>
       <c r="V42" s="11"/>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B43" s="10"/>
       <c r="C43" s="6">
         <v>0.3</v>
@@ -3198,7 +3197,7 @@
       </c>
       <c r="V43" s="11"/>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B44" s="10"/>
       <c r="C44" s="6">
         <v>0.5</v>
@@ -3250,7 +3249,7 @@
       </c>
       <c r="V44" s="11"/>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B45" s="10"/>
       <c r="C45" s="6">
         <v>0.7</v>
@@ -3302,7 +3301,7 @@
       </c>
       <c r="V45" s="11"/>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B46" s="10"/>
       <c r="C46" s="6">
         <v>1</v>
@@ -3354,7 +3353,7 @@
       </c>
       <c r="V46" s="11"/>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B47" s="5" t="s">
         <v>9</v>
       </c>
@@ -3414,7 +3413,7 @@
       </c>
       <c r="V47" s="11"/>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B48" s="10"/>
       <c r="C48" s="6">
         <v>2</v>
@@ -3470,7 +3469,7 @@
       </c>
       <c r="V48" s="11"/>
     </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B49" s="10"/>
       <c r="C49" s="6">
         <v>3</v>
@@ -3526,7 +3525,7 @@
       </c>
       <c r="V49" s="11"/>
     </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B50" s="5" t="s">
         <v>6</v>
       </c>
@@ -3586,7 +3585,7 @@
       </c>
       <c r="V50" s="11"/>
     </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B51" s="10"/>
       <c r="C51" s="6">
         <v>2</v>
@@ -3642,7 +3641,7 @@
       </c>
       <c r="V51" s="11"/>
     </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B52" s="10"/>
       <c r="C52" s="6">
         <v>3</v>
@@ -3698,7 +3697,7 @@
       </c>
       <c r="V52" s="11"/>
     </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>1</v>
       </c>
@@ -3758,7 +3757,7 @@
       </c>
       <c r="V53" s="11"/>
     </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B54" s="10"/>
       <c r="C54" s="6">
         <v>1</v>
@@ -3814,7 +3813,7 @@
       </c>
       <c r="V54" s="11"/>
     </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B55" s="10"/>
       <c r="C55" s="6">
         <v>2</v>
@@ -3870,7 +3869,7 @@
       </c>
       <c r="V55" s="11"/>
     </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B56" s="10"/>
       <c r="C56" s="6">
         <v>3</v>
@@ -3926,7 +3925,7 @@
       </c>
       <c r="V56" s="11"/>
     </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>7</v>
       </c>
@@ -3986,7 +3985,7 @@
       </c>
       <c r="V57" s="11"/>
     </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B58" s="10"/>
       <c r="C58" s="6">
         <v>3</v>
@@ -4038,7 +4037,7 @@
       </c>
       <c r="V58" s="11"/>
     </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B59" s="10"/>
       <c r="C59" s="6">
         <v>5</v>
@@ -4090,7 +4089,7 @@
       </c>
       <c r="V59" s="11"/>
     </row>
-    <row r="60" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B60" s="12" t="s">
         <v>8</v>
       </c>
@@ -4148,7 +4147,7 @@
       </c>
       <c r="V60" s="14"/>
     </row>
-    <row r="61" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
         <v>32</v>
       </c>
@@ -4164,7 +4163,7 @@
       <c r="J61" s="16"/>
       <c r="K61" s="17"/>
       <c r="M61" s="15" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="N61" s="16" t="s">
         <v>50</v>
@@ -4178,7 +4177,7 @@
       <c r="U61" s="16"/>
       <c r="V61" s="17"/>
     </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B62" s="2" t="s">
         <v>15</v>
       </c>
@@ -4236,7 +4235,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B63" s="5" t="s">
         <v>2</v>
       </c>
@@ -4265,26 +4264,26 @@
       </c>
       <c r="O63" s="6"/>
       <c r="P63" s="22">
-        <v>6430962</v>
+        <v>1040990</v>
       </c>
       <c r="Q63" s="22">
-        <v>193372431</v>
+        <v>9714095</v>
       </c>
       <c r="R63" s="22">
-        <v>3729.47144317626</v>
+        <v>312.76</v>
       </c>
       <c r="S63" s="22">
-        <v>12939.703567877001</v>
+        <v>71820</v>
       </c>
       <c r="T63" s="22">
-        <v>12939.703567877001</v>
+        <v>71820</v>
       </c>
       <c r="U63" s="22">
         <v>0</v>
       </c>
       <c r="V63" s="11"/>
     </row>
-    <row r="64" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>12</v>
       </c>
@@ -4311,26 +4310,26 @@
         <v>44</v>
       </c>
       <c r="P64" s="22">
-        <v>6430915</v>
+        <v>1036513</v>
       </c>
       <c r="Q64" s="22">
-        <v>193370475</v>
+        <v>9685032</v>
       </c>
       <c r="R64" s="22">
-        <v>3731.65211868286</v>
+        <v>312.14</v>
       </c>
       <c r="S64" s="22">
-        <v>12939.703567877001</v>
+        <v>71820</v>
       </c>
       <c r="T64" s="22">
-        <v>12935.3197174586</v>
+        <v>71751</v>
       </c>
       <c r="U64" s="22">
-        <v>3.38790637315382E-4</v>
+        <v>9.60735E-4</v>
       </c>
       <c r="V64" s="11"/>
     </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B65" s="10"/>
       <c r="C65" s="6">
         <v>0.01</v>
@@ -4349,26 +4348,26 @@
       </c>
       <c r="O65" s="6"/>
       <c r="P65" s="22">
-        <v>6428673</v>
+        <v>895356</v>
       </c>
       <c r="Q65" s="22">
-        <v>193280210</v>
+        <v>8388090</v>
       </c>
       <c r="R65" s="22">
-        <v>3720.9327049255298</v>
+        <v>270.89999999999998</v>
       </c>
       <c r="S65" s="22">
-        <v>12939.703567877001</v>
+        <v>71820</v>
       </c>
       <c r="T65" s="22">
-        <v>12823.040169166899</v>
+        <v>71104</v>
       </c>
       <c r="U65" s="22">
-        <v>9.0159251406461902E-3</v>
+        <v>9.9693679999999993E-3</v>
       </c>
       <c r="V65" s="11"/>
     </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B66" s="5" t="s">
         <v>13</v>
       </c>
@@ -4394,15 +4393,27 @@
       <c r="O66" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="P66" s="6"/>
-      <c r="Q66" s="6"/>
-      <c r="R66" s="6"/>
-      <c r="S66" s="7"/>
-      <c r="T66" s="7"/>
-      <c r="U66" s="8"/>
+      <c r="P66" s="22">
+        <v>271191</v>
+      </c>
+      <c r="Q66" s="22">
+        <v>2476976</v>
+      </c>
+      <c r="R66" s="22">
+        <v>90.838489532470703</v>
+      </c>
+      <c r="S66" s="22">
+        <v>71820</v>
+      </c>
+      <c r="T66" s="22">
+        <v>71820</v>
+      </c>
+      <c r="U66" s="22">
+        <v>0</v>
+      </c>
       <c r="V66" s="11"/>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B67" s="10"/>
       <c r="C67" s="6">
         <v>1</v>
@@ -4424,15 +4435,27 @@
       <c r="O67" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P67" s="6"/>
-      <c r="Q67" s="6"/>
-      <c r="R67" s="6"/>
-      <c r="S67" s="7"/>
-      <c r="T67" s="7"/>
-      <c r="U67" s="8"/>
+      <c r="P67" s="22">
+        <v>1040990</v>
+      </c>
+      <c r="Q67" s="22">
+        <v>9714095</v>
+      </c>
+      <c r="R67" s="22">
+        <v>315.25988197326598</v>
+      </c>
+      <c r="S67" s="22">
+        <v>71820</v>
+      </c>
+      <c r="T67" s="22">
+        <v>71820</v>
+      </c>
+      <c r="U67" s="22">
+        <v>0</v>
+      </c>
       <c r="V67" s="11"/>
     </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B68" s="10"/>
       <c r="C68" s="6">
         <v>2</v>
@@ -4454,15 +4477,27 @@
       <c r="O68" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P68" s="6"/>
-      <c r="Q68" s="6"/>
-      <c r="R68" s="6"/>
-      <c r="S68" s="7"/>
-      <c r="T68" s="7"/>
-      <c r="U68" s="8"/>
+      <c r="P68" s="22">
+        <v>237227</v>
+      </c>
+      <c r="Q68" s="22">
+        <v>1975571</v>
+      </c>
+      <c r="R68" s="22">
+        <v>73.556386947631793</v>
+      </c>
+      <c r="S68" s="22">
+        <v>71820</v>
+      </c>
+      <c r="T68" s="22">
+        <v>71820</v>
+      </c>
+      <c r="U68" s="22">
+        <v>0</v>
+      </c>
       <c r="V68" s="11"/>
     </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B69" s="5" t="s">
         <v>3</v>
       </c>
@@ -4488,15 +4523,27 @@
       <c r="O69" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="P69" s="6"/>
-      <c r="Q69" s="6"/>
-      <c r="R69" s="6"/>
-      <c r="S69" s="7"/>
-      <c r="T69" s="7"/>
-      <c r="U69" s="8"/>
+      <c r="P69" s="22">
+        <v>277053</v>
+      </c>
+      <c r="Q69" s="22">
+        <v>2462117</v>
+      </c>
+      <c r="R69" s="22">
+        <v>89.991201400756793</v>
+      </c>
+      <c r="S69" s="22">
+        <v>71820</v>
+      </c>
+      <c r="T69" s="22">
+        <v>71820</v>
+      </c>
+      <c r="U69" s="22">
+        <v>0</v>
+      </c>
       <c r="V69" s="11"/>
     </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B70" s="10"/>
       <c r="C70" s="6">
         <v>1</v>
@@ -4518,15 +4565,27 @@
       <c r="O70" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="P70" s="6"/>
-      <c r="Q70" s="6"/>
-      <c r="R70" s="6"/>
-      <c r="S70" s="7"/>
-      <c r="T70" s="7"/>
-      <c r="U70" s="8"/>
+      <c r="P70" s="22">
+        <v>419548</v>
+      </c>
+      <c r="Q70" s="22">
+        <v>3533204</v>
+      </c>
+      <c r="R70" s="22">
+        <v>131.16611099243099</v>
+      </c>
+      <c r="S70" s="22">
+        <v>71820</v>
+      </c>
+      <c r="T70" s="22">
+        <v>71820</v>
+      </c>
+      <c r="U70" s="22">
+        <v>0</v>
+      </c>
       <c r="V70" s="11"/>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B71" s="5" t="s">
         <v>5</v>
       </c>
@@ -4552,15 +4611,27 @@
       <c r="O71" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="P71" s="6"/>
-      <c r="Q71" s="6"/>
-      <c r="R71" s="6"/>
-      <c r="S71" s="7"/>
-      <c r="T71" s="7"/>
-      <c r="U71" s="8"/>
+      <c r="P71" s="22">
+        <v>693411</v>
+      </c>
+      <c r="Q71" s="22">
+        <v>7440479</v>
+      </c>
+      <c r="R71" s="22">
+        <v>260.66686439514098</v>
+      </c>
+      <c r="S71" s="22">
+        <v>71820</v>
+      </c>
+      <c r="T71" s="22">
+        <v>71819.999999999302</v>
+      </c>
+      <c r="U71" s="23">
+        <v>9.3203578460717695E-15</v>
+      </c>
       <c r="V71" s="11"/>
     </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B72" s="10"/>
       <c r="C72" s="6">
         <v>0.1</v>
@@ -4578,15 +4649,27 @@
         <v>0.1</v>
       </c>
       <c r="O72" s="6"/>
-      <c r="P72" s="6"/>
-      <c r="Q72" s="18"/>
-      <c r="R72" s="6"/>
-      <c r="S72" s="7"/>
-      <c r="T72" s="7"/>
-      <c r="U72" s="8"/>
+      <c r="P72" s="22">
+        <v>313957</v>
+      </c>
+      <c r="Q72" s="22">
+        <v>2573248</v>
+      </c>
+      <c r="R72" s="22">
+        <v>100.578533172607</v>
+      </c>
+      <c r="S72" s="22">
+        <v>71820</v>
+      </c>
+      <c r="T72" s="22">
+        <v>71820</v>
+      </c>
+      <c r="U72" s="22">
+        <v>0</v>
+      </c>
       <c r="V72" s="11"/>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B73" s="10"/>
       <c r="C73" s="6">
         <v>0.3</v>
@@ -4604,15 +4687,27 @@
         <v>0.3</v>
       </c>
       <c r="O73" s="6"/>
-      <c r="P73" s="6"/>
-      <c r="Q73" s="6"/>
-      <c r="R73" s="6"/>
-      <c r="S73" s="7"/>
-      <c r="T73" s="7"/>
-      <c r="U73" s="8"/>
+      <c r="P73" s="22">
+        <v>295934</v>
+      </c>
+      <c r="Q73" s="22">
+        <v>2687180</v>
+      </c>
+      <c r="R73" s="22">
+        <v>154.760343551635</v>
+      </c>
+      <c r="S73" s="22">
+        <v>71820</v>
+      </c>
+      <c r="T73" s="22">
+        <v>71820</v>
+      </c>
+      <c r="U73" s="22">
+        <v>0</v>
+      </c>
       <c r="V73" s="11"/>
     </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B74" s="10"/>
       <c r="C74" s="6">
         <v>0.5</v>
@@ -4630,15 +4725,27 @@
         <v>0.5</v>
       </c>
       <c r="O74" s="6"/>
-      <c r="P74" s="6"/>
-      <c r="Q74" s="6"/>
-      <c r="R74" s="6"/>
-      <c r="S74" s="7"/>
-      <c r="T74" s="7"/>
-      <c r="U74" s="8"/>
+      <c r="P74" s="22">
+        <v>220596</v>
+      </c>
+      <c r="Q74" s="22">
+        <v>2121341</v>
+      </c>
+      <c r="R74" s="22">
+        <v>287.58506584167401</v>
+      </c>
+      <c r="S74" s="22">
+        <v>71820</v>
+      </c>
+      <c r="T74" s="22">
+        <v>71820</v>
+      </c>
+      <c r="U74" s="22">
+        <v>0</v>
+      </c>
       <c r="V74" s="11"/>
     </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B75" s="10"/>
       <c r="C75" s="6">
         <v>0.7</v>
@@ -4656,15 +4763,27 @@
         <v>0.7</v>
       </c>
       <c r="O75" s="6"/>
-      <c r="P75" s="6"/>
-      <c r="Q75" s="6"/>
-      <c r="R75" s="6"/>
-      <c r="S75" s="7"/>
-      <c r="T75" s="7"/>
-      <c r="U75" s="8"/>
+      <c r="P75" s="22">
+        <v>243089</v>
+      </c>
+      <c r="Q75" s="22">
+        <v>2245086</v>
+      </c>
+      <c r="R75" s="22">
+        <v>421.61192131042401</v>
+      </c>
+      <c r="S75" s="22">
+        <v>71820</v>
+      </c>
+      <c r="T75" s="22">
+        <v>71820</v>
+      </c>
+      <c r="U75" s="22">
+        <v>0</v>
+      </c>
       <c r="V75" s="11"/>
     </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B76" s="10"/>
       <c r="C76" s="6">
         <v>1</v>
@@ -4682,15 +4801,27 @@
         <v>1</v>
       </c>
       <c r="O76" s="6"/>
-      <c r="P76" s="6"/>
-      <c r="Q76" s="6"/>
-      <c r="R76" s="6"/>
-      <c r="S76" s="7"/>
-      <c r="T76" s="7"/>
-      <c r="U76" s="8"/>
+      <c r="P76" s="22">
+        <v>212875</v>
+      </c>
+      <c r="Q76" s="22">
+        <v>2037961</v>
+      </c>
+      <c r="R76" s="22">
+        <v>457.02123451232899</v>
+      </c>
+      <c r="S76" s="22">
+        <v>71820</v>
+      </c>
+      <c r="T76" s="22">
+        <v>71820</v>
+      </c>
+      <c r="U76" s="22">
+        <v>0</v>
+      </c>
       <c r="V76" s="11"/>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B77" s="5" t="s">
         <v>9</v>
       </c>
@@ -4716,15 +4847,27 @@
       <c r="O77" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P77" s="6"/>
-      <c r="Q77" s="6"/>
-      <c r="R77" s="6"/>
-      <c r="S77" s="7"/>
-      <c r="T77" s="7"/>
-      <c r="U77" s="8"/>
+      <c r="P77" s="22">
+        <v>438467</v>
+      </c>
+      <c r="Q77" s="22">
+        <v>3858604</v>
+      </c>
+      <c r="R77" s="22">
+        <v>200.856367111206</v>
+      </c>
+      <c r="S77" s="22">
+        <v>71820</v>
+      </c>
+      <c r="T77" s="22">
+        <v>71820</v>
+      </c>
+      <c r="U77" s="22">
+        <v>0</v>
+      </c>
       <c r="V77" s="11"/>
     </row>
-    <row r="78" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B78" s="10"/>
       <c r="C78" s="6">
         <v>2</v>
@@ -4746,15 +4889,27 @@
       <c r="O78" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="P78" s="6"/>
-      <c r="Q78" s="6"/>
-      <c r="R78" s="6"/>
-      <c r="S78" s="7"/>
-      <c r="T78" s="7"/>
-      <c r="U78" s="8"/>
+      <c r="P78" s="22">
+        <v>762357</v>
+      </c>
+      <c r="Q78" s="22">
+        <v>9091354</v>
+      </c>
+      <c r="R78" s="22">
+        <v>365.24200248718199</v>
+      </c>
+      <c r="S78" s="22">
+        <v>71820</v>
+      </c>
+      <c r="T78" s="22">
+        <v>71813</v>
+      </c>
+      <c r="U78" s="23">
+        <v>9.7465886939571107E-5</v>
+      </c>
       <c r="V78" s="11"/>
     </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B79" s="10"/>
       <c r="C79" s="6">
         <v>3</v>
@@ -4776,15 +4931,27 @@
       <c r="O79" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="P79" s="6"/>
-      <c r="Q79" s="6"/>
-      <c r="R79" s="6"/>
-      <c r="S79" s="7"/>
-      <c r="T79" s="7"/>
-      <c r="U79" s="8"/>
+      <c r="P79" s="22">
+        <v>351384</v>
+      </c>
+      <c r="Q79" s="22">
+        <v>5406526</v>
+      </c>
+      <c r="R79" s="22">
+        <v>256.265235900878</v>
+      </c>
+      <c r="S79" s="22">
+        <v>71820</v>
+      </c>
+      <c r="T79" s="22">
+        <v>71814</v>
+      </c>
+      <c r="U79" s="23">
+        <v>8.3542188805346704E-5</v>
+      </c>
       <c r="V79" s="11"/>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B80" s="5" t="s">
         <v>6</v>
       </c>
@@ -4810,15 +4977,27 @@
       <c r="O80" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="P80" s="6"/>
-      <c r="Q80" s="6"/>
-      <c r="R80" s="6"/>
-      <c r="S80" s="7"/>
-      <c r="T80" s="7"/>
-      <c r="U80" s="8"/>
+      <c r="P80" s="22">
+        <v>1810823</v>
+      </c>
+      <c r="Q80" s="22">
+        <v>13114780</v>
+      </c>
+      <c r="R80" s="22">
+        <v>497.73002433776799</v>
+      </c>
+      <c r="S80" s="22">
+        <v>71820</v>
+      </c>
+      <c r="T80" s="22">
+        <v>71820</v>
+      </c>
+      <c r="U80" s="22">
+        <v>0</v>
+      </c>
       <c r="V80" s="11"/>
     </row>
-    <row r="81" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B81" s="10"/>
       <c r="C81" s="6">
         <v>2</v>
@@ -4840,15 +5019,27 @@
       <c r="O81" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="P81" s="18"/>
-      <c r="Q81" s="6"/>
-      <c r="R81" s="6"/>
-      <c r="S81" s="7"/>
-      <c r="T81" s="7"/>
-      <c r="U81" s="8"/>
+      <c r="P81" s="22">
+        <v>11195326</v>
+      </c>
+      <c r="Q81" s="22">
+        <v>97612517</v>
+      </c>
+      <c r="R81" s="22">
+        <v>3600.0623779296802</v>
+      </c>
+      <c r="S81" s="22">
+        <v>72200</v>
+      </c>
+      <c r="T81" s="22">
+        <v>58960</v>
+      </c>
+      <c r="U81" s="22">
+        <v>0.183379501385041</v>
+      </c>
       <c r="V81" s="11"/>
     </row>
-    <row r="82" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B82" s="10"/>
       <c r="C82" s="6">
         <v>3</v>
@@ -4870,15 +5061,27 @@
       <c r="O82" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="P82" s="18"/>
-      <c r="Q82" s="6"/>
-      <c r="R82" s="6"/>
-      <c r="S82" s="7"/>
-      <c r="T82" s="7"/>
-      <c r="U82" s="8"/>
+      <c r="P82" s="22">
+        <v>145677</v>
+      </c>
+      <c r="Q82" s="22">
+        <v>1704598</v>
+      </c>
+      <c r="R82" s="22">
+        <v>238.171077728271</v>
+      </c>
+      <c r="S82" s="22">
+        <v>71820</v>
+      </c>
+      <c r="T82" s="22">
+        <v>71820</v>
+      </c>
+      <c r="U82" s="22">
+        <v>0</v>
+      </c>
       <c r="V82" s="11"/>
     </row>
-    <row r="83" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
         <v>1</v>
       </c>
@@ -4904,15 +5107,27 @@
       <c r="O83" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="P83" s="18"/>
-      <c r="Q83" s="6"/>
-      <c r="R83" s="6"/>
-      <c r="S83" s="7"/>
-      <c r="T83" s="7"/>
-      <c r="U83" s="8"/>
+      <c r="P83" s="22">
+        <v>5849977</v>
+      </c>
+      <c r="Q83" s="22">
+        <v>51566714</v>
+      </c>
+      <c r="R83" s="22">
+        <v>1934.511844635</v>
+      </c>
+      <c r="S83" s="22">
+        <v>71820</v>
+      </c>
+      <c r="T83" s="22">
+        <v>71815</v>
+      </c>
+      <c r="U83" s="23">
+        <v>6.9618490671122206E-5</v>
+      </c>
       <c r="V83" s="11"/>
     </row>
-    <row r="84" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B84" s="10"/>
       <c r="C84" s="6">
         <v>1</v>
@@ -4934,15 +5149,27 @@
       <c r="O84" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="P84" s="18"/>
-      <c r="Q84" s="6"/>
-      <c r="R84" s="6"/>
-      <c r="S84" s="7"/>
-      <c r="T84" s="7"/>
-      <c r="U84" s="8"/>
+      <c r="P84" s="22">
+        <v>832391</v>
+      </c>
+      <c r="Q84" s="22">
+        <v>10637425</v>
+      </c>
+      <c r="R84" s="22">
+        <v>295.38286781311001</v>
+      </c>
+      <c r="S84" s="22">
+        <v>71820</v>
+      </c>
+      <c r="T84" s="22">
+        <v>71820</v>
+      </c>
+      <c r="U84" s="22">
+        <v>0</v>
+      </c>
       <c r="V84" s="11"/>
     </row>
-    <row r="85" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B85" s="10"/>
       <c r="C85" s="6">
         <v>2</v>
@@ -4964,15 +5191,27 @@
       <c r="O85" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="P85" s="18"/>
-      <c r="Q85" s="6"/>
-      <c r="R85" s="6"/>
-      <c r="S85" s="7"/>
-      <c r="T85" s="7"/>
-      <c r="U85" s="8"/>
+      <c r="P85" s="22">
+        <v>721477</v>
+      </c>
+      <c r="Q85" s="22">
+        <v>7618633</v>
+      </c>
+      <c r="R85" s="22">
+        <v>314.30330276489201</v>
+      </c>
+      <c r="S85" s="22">
+        <v>71820</v>
+      </c>
+      <c r="T85" s="22">
+        <v>71820</v>
+      </c>
+      <c r="U85" s="22">
+        <v>0</v>
+      </c>
       <c r="V85" s="11"/>
     </row>
-    <row r="86" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B86" s="10"/>
       <c r="C86" s="6">
         <v>3</v>
@@ -4994,15 +5233,27 @@
       <c r="O86" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="P86" s="18"/>
-      <c r="Q86" s="6"/>
-      <c r="R86" s="6"/>
-      <c r="S86" s="7"/>
-      <c r="T86" s="7"/>
-      <c r="U86" s="8"/>
+      <c r="P86" s="22">
+        <v>554486</v>
+      </c>
+      <c r="Q86" s="22">
+        <v>7291613</v>
+      </c>
+      <c r="R86" s="22">
+        <v>453.67033958435002</v>
+      </c>
+      <c r="S86" s="22">
+        <v>71820</v>
+      </c>
+      <c r="T86" s="22">
+        <v>71819</v>
+      </c>
+      <c r="U86" s="23">
+        <v>1.39236981342244E-5</v>
+      </c>
       <c r="V86" s="11"/>
     </row>
-    <row r="87" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>7</v>
       </c>
@@ -5028,15 +5279,27 @@
       <c r="O87" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="P87" s="18"/>
-      <c r="Q87" s="6"/>
-      <c r="R87" s="6"/>
-      <c r="S87" s="7"/>
-      <c r="T87" s="7"/>
-      <c r="U87" s="8"/>
+      <c r="P87" s="22">
+        <v>1573100</v>
+      </c>
+      <c r="Q87" s="22">
+        <v>13350778</v>
+      </c>
+      <c r="R87" s="22">
+        <v>490.14995956420898</v>
+      </c>
+      <c r="S87" s="22">
+        <v>71820</v>
+      </c>
+      <c r="T87" s="22">
+        <v>71816</v>
+      </c>
+      <c r="U87" s="23">
+        <v>5.5694792536897802E-5</v>
+      </c>
       <c r="V87" s="11"/>
     </row>
-    <row r="88" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B88" s="10"/>
       <c r="C88" s="6">
         <v>3</v>
@@ -5054,15 +5317,27 @@
         <v>3</v>
       </c>
       <c r="O88" s="6"/>
-      <c r="P88" s="18"/>
-      <c r="Q88" s="6"/>
-      <c r="R88" s="6"/>
-      <c r="S88" s="7"/>
-      <c r="T88" s="7"/>
-      <c r="U88" s="8"/>
+      <c r="P88" s="22">
+        <v>924400</v>
+      </c>
+      <c r="Q88" s="22">
+        <v>7179631</v>
+      </c>
+      <c r="R88" s="22">
+        <v>285.46447753906199</v>
+      </c>
+      <c r="S88" s="22">
+        <v>71820</v>
+      </c>
+      <c r="T88" s="22">
+        <v>71815</v>
+      </c>
+      <c r="U88" s="23">
+        <v>6.9618490671122206E-5</v>
+      </c>
       <c r="V88" s="11"/>
     </row>
-    <row r="89" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B89" s="10"/>
       <c r="C89" s="6">
         <v>5</v>
@@ -5080,15 +5355,27 @@
         <v>5</v>
       </c>
       <c r="O89" s="6"/>
-      <c r="P89" s="18"/>
-      <c r="Q89" s="6"/>
-      <c r="R89" s="6"/>
-      <c r="S89" s="7"/>
-      <c r="T89" s="7"/>
-      <c r="U89" s="8"/>
+      <c r="P89" s="22">
+        <v>710063</v>
+      </c>
+      <c r="Q89" s="22">
+        <v>5833325</v>
+      </c>
+      <c r="R89" s="22">
+        <v>184.54610824584901</v>
+      </c>
+      <c r="S89" s="22">
+        <v>71820</v>
+      </c>
+      <c r="T89" s="22">
+        <v>71820</v>
+      </c>
+      <c r="U89" s="22">
+        <v>0</v>
+      </c>
       <c r="V89" s="11"/>
     </row>
-    <row r="90" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B90" s="12" t="s">
         <v>8</v>
       </c>
@@ -5114,12 +5401,24 @@
       <c r="O90" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="P90" s="13"/>
-      <c r="Q90" s="13"/>
-      <c r="R90" s="13"/>
-      <c r="S90" s="19"/>
-      <c r="T90" s="19"/>
-      <c r="U90" s="20"/>
+      <c r="P90" s="22">
+        <v>256744</v>
+      </c>
+      <c r="Q90" s="22">
+        <v>2116270</v>
+      </c>
+      <c r="R90" s="22">
+        <v>79.6397190093994</v>
+      </c>
+      <c r="S90" s="22">
+        <v>71820</v>
+      </c>
+      <c r="T90" s="22">
+        <v>71820</v>
+      </c>
+      <c r="U90" s="22">
+        <v>0</v>
+      </c>
       <c r="V90" s="14"/>
     </row>
   </sheetData>
@@ -5181,26 +5480,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFD65E3-8934-424F-8DF5-5D613ABC58CA}">
   <dimension ref="B1:AC110"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="J92" sqref="B67:J92"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="22.25" customWidth="1"/>
-    <col min="8" max="8" width="11.125" customWidth="1"/>
-    <col min="9" max="9" width="8.625" customWidth="1"/>
-    <col min="10" max="10" width="10.375" customWidth="1"/>
-    <col min="18" max="18" width="12.125" customWidth="1"/>
+    <col min="8" max="8" width="11.08203125" customWidth="1"/>
+    <col min="9" max="9" width="8.58203125" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" customWidth="1"/>
+    <col min="18" max="18" width="12.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:29" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:29" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
@@ -5210,10 +5509,10 @@
       <c r="I2" s="16"/>
       <c r="J2" s="17"/>
       <c r="L2" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N2" s="16"/>
       <c r="P2" s="16"/>
@@ -5230,7 +5529,7 @@
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
     </row>
-    <row r="3" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
@@ -5242,13 +5541,13 @@
         <v>17</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>20</v>
@@ -5267,13 +5566,13 @@
         <v>17</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>20</v>
@@ -5290,7 +5589,7 @@
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
     </row>
-    <row r="4" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
@@ -5350,7 +5649,7 @@
       <c r="AB4" s="25"/>
       <c r="AC4" s="25"/>
     </row>
-    <row r="5" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
@@ -5414,7 +5713,7 @@
       <c r="AB5" s="25"/>
       <c r="AC5" s="25"/>
     </row>
-    <row r="6" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B6" s="10"/>
       <c r="C6" s="6">
         <v>0.01</v>
@@ -5470,7 +5769,7 @@
       <c r="AB6" s="25"/>
       <c r="AC6" s="25"/>
     </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
@@ -5538,7 +5837,7 @@
       <c r="AB7" s="25"/>
       <c r="AC7" s="25"/>
     </row>
-    <row r="8" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B8" s="10"/>
       <c r="C8" s="6">
         <v>1</v>
@@ -5598,13 +5897,13 @@
       <c r="AB8" s="25"/>
       <c r="AC8" s="25"/>
     </row>
-    <row r="9" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B9" s="10"/>
       <c r="C9" s="6">
         <v>2</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9" s="22">
         <v>2.2026786804199201</v>
@@ -5658,7 +5957,7 @@
       <c r="AB9" s="25"/>
       <c r="AC9" s="25"/>
     </row>
-    <row r="10" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>3</v>
       </c>
@@ -5722,7 +6021,7 @@
       <c r="AB10" s="25"/>
       <c r="AC10" s="25"/>
     </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B11" s="10"/>
       <c r="C11" s="6">
         <v>1</v>
@@ -5782,7 +6081,7 @@
       <c r="AB11" s="25"/>
       <c r="AC11" s="25"/>
     </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>5</v>
       </c>
@@ -5846,7 +6145,7 @@
       <c r="AB12" s="25"/>
       <c r="AC12" s="25"/>
     </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B13" s="10"/>
       <c r="C13" s="6">
         <v>0.1</v>
@@ -5902,7 +6201,7 @@
       <c r="AB13" s="25"/>
       <c r="AC13" s="25"/>
     </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B14" s="10"/>
       <c r="C14" s="6">
         <v>0.3</v>
@@ -5958,7 +6257,7 @@
       <c r="AB14" s="25"/>
       <c r="AC14" s="25"/>
     </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B15" s="10"/>
       <c r="C15" s="6">
         <v>0.5</v>
@@ -6014,7 +6313,7 @@
       <c r="AB15" s="25"/>
       <c r="AC15" s="25"/>
     </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B16" s="10"/>
       <c r="C16" s="6">
         <v>0.7</v>
@@ -6070,7 +6369,7 @@
       <c r="AB16" s="25"/>
       <c r="AC16" s="25"/>
     </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B17" s="10"/>
       <c r="C17" s="6">
         <v>1</v>
@@ -6126,7 +6425,7 @@
       <c r="AB17" s="25"/>
       <c r="AC17" s="25"/>
     </row>
-    <row r="18" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
         <v>9</v>
       </c>
@@ -6190,7 +6489,7 @@
       <c r="AB18" s="25"/>
       <c r="AC18" s="25"/>
     </row>
-    <row r="19" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B19" s="10"/>
       <c r="C19" s="6">
         <v>2</v>
@@ -6250,7 +6549,7 @@
       <c r="AB19" s="25"/>
       <c r="AC19" s="25"/>
     </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B20" s="10"/>
       <c r="C20" s="6">
         <v>3</v>
@@ -6310,7 +6609,7 @@
       <c r="AB20" s="25"/>
       <c r="AC20" s="25"/>
     </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
         <v>6</v>
       </c>
@@ -6374,7 +6673,7 @@
       <c r="AB21" s="25"/>
       <c r="AC21" s="25"/>
     </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B22" s="10"/>
       <c r="C22" s="6">
         <v>2</v>
@@ -6434,7 +6733,7 @@
       <c r="AB22" s="25"/>
       <c r="AC22" s="25"/>
     </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B23" s="10"/>
       <c r="C23" s="6">
         <v>3</v>
@@ -6494,7 +6793,7 @@
       <c r="AB23" s="25"/>
       <c r="AC23" s="25"/>
     </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
         <v>1</v>
       </c>
@@ -6558,7 +6857,7 @@
       <c r="AB24" s="25"/>
       <c r="AC24" s="25"/>
     </row>
-    <row r="25" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" s="6">
         <v>1</v>
@@ -6618,7 +6917,7 @@
       <c r="AB25" s="25"/>
       <c r="AC25" s="25"/>
     </row>
-    <row r="26" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B26" s="10"/>
       <c r="C26" s="6">
         <v>2</v>
@@ -6678,7 +6977,7 @@
       <c r="AB26" s="25"/>
       <c r="AC26" s="25"/>
     </row>
-    <row r="27" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B27" s="10"/>
       <c r="C27" s="6">
         <v>3</v>
@@ -6738,7 +7037,7 @@
       <c r="AB27" s="25"/>
       <c r="AC27" s="25"/>
     </row>
-    <row r="28" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
         <v>7</v>
       </c>
@@ -6802,7 +7101,7 @@
       <c r="AB28" s="25"/>
       <c r="AC28" s="25"/>
     </row>
-    <row r="29" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B29" s="10"/>
       <c r="C29" s="6">
         <v>3</v>
@@ -6858,7 +7157,7 @@
       <c r="AB29" s="25"/>
       <c r="AC29" s="25"/>
     </row>
-    <row r="30" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B30" s="10"/>
       <c r="C30" s="6">
         <v>5</v>
@@ -6914,7 +7213,7 @@
       <c r="AB30" s="25"/>
       <c r="AC30" s="25"/>
     </row>
-    <row r="31" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:29" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="12" t="s">
         <v>8</v>
       </c>
@@ -6978,8 +7277,8 @@
       <c r="AB31" s="25"/>
       <c r="AC31" s="25"/>
     </row>
-    <row r="32" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:29" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="2:20" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="2" t="s">
         <v>10</v>
       </c>
@@ -6995,10 +7294,10 @@
       <c r="J33" s="17"/>
       <c r="K33" s="6"/>
       <c r="L33" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M33" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N33" s="16"/>
       <c r="O33" s="16"/>
@@ -7008,7 +7307,7 @@
       <c r="S33" s="16"/>
       <c r="T33" s="17"/>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B34" s="26" t="s">
         <v>15</v>
       </c>
@@ -7020,13 +7319,13 @@
         <v>17</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I34" s="3" t="s">
         <v>20</v>
@@ -7046,13 +7345,13 @@
         <v>17</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q34" s="3" t="s">
         <v>18</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S34" s="3" t="s">
         <v>20</v>
@@ -7061,7 +7360,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>2</v>
       </c>
@@ -7114,7 +7413,7 @@
       </c>
       <c r="T35" s="11"/>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>12</v>
       </c>
@@ -7171,7 +7470,7 @@
       </c>
       <c r="T36" s="11"/>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C37">
         <v>0.01</v>
       </c>
@@ -7219,7 +7518,7 @@
       </c>
       <c r="T37" s="11"/>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>13</v>
       </c>
@@ -7280,7 +7579,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C39">
         <v>1</v>
       </c>
@@ -7334,7 +7633,7 @@
       </c>
       <c r="T39" s="11"/>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C40">
         <v>2</v>
       </c>
@@ -7388,7 +7687,7 @@
       </c>
       <c r="T40" s="11"/>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>3</v>
       </c>
@@ -7447,7 +7746,7 @@
       </c>
       <c r="T41" s="11"/>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C42">
         <v>1</v>
       </c>
@@ -7499,7 +7798,7 @@
       </c>
       <c r="T42" s="11"/>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>5</v>
       </c>
@@ -7556,7 +7855,7 @@
       </c>
       <c r="T43" s="11"/>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C44">
         <v>0.1</v>
       </c>
@@ -7604,7 +7903,7 @@
       </c>
       <c r="T44" s="11"/>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C45">
         <v>0.3</v>
       </c>
@@ -7652,7 +7951,7 @@
       </c>
       <c r="T45" s="11"/>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C46">
         <v>0.5</v>
       </c>
@@ -7700,7 +7999,7 @@
       </c>
       <c r="T46" s="11"/>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C47">
         <v>0.7</v>
       </c>
@@ -7748,7 +8047,7 @@
       </c>
       <c r="T47" s="11"/>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C48">
         <v>1</v>
       </c>
@@ -7796,7 +8095,7 @@
       </c>
       <c r="T48" s="11"/>
     </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>9</v>
       </c>
@@ -7853,7 +8152,7 @@
       </c>
       <c r="T49" s="11"/>
     </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C50">
         <v>2</v>
       </c>
@@ -7905,7 +8204,7 @@
       </c>
       <c r="T50" s="11"/>
     </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C51">
         <v>3</v>
       </c>
@@ -7957,7 +8256,7 @@
       </c>
       <c r="T51" s="11"/>
     </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>6</v>
       </c>
@@ -8014,7 +8313,7 @@
       </c>
       <c r="T52" s="11"/>
     </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C53">
         <v>2</v>
       </c>
@@ -8066,7 +8365,7 @@
       </c>
       <c r="T53" s="11"/>
     </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C54">
         <v>3</v>
       </c>
@@ -8118,7 +8417,7 @@
       </c>
       <c r="T54" s="11"/>
     </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>1</v>
       </c>
@@ -8175,7 +8474,7 @@
       </c>
       <c r="T55" s="11"/>
     </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B56" s="6"/>
       <c r="C56" s="6">
         <v>1</v>
@@ -8228,7 +8527,7 @@
       </c>
       <c r="T56" s="11"/>
     </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B57" s="10"/>
       <c r="C57" s="6">
         <v>2</v>
@@ -8281,7 +8580,7 @@
       </c>
       <c r="T57" s="11"/>
     </row>
-    <row r="58" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B58" s="10"/>
       <c r="C58" s="6">
         <v>3</v>
@@ -8334,7 +8633,7 @@
       </c>
       <c r="T58" s="11"/>
     </row>
-    <row r="59" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>7</v>
       </c>
@@ -8391,7 +8690,7 @@
       </c>
       <c r="T59" s="11"/>
     </row>
-    <row r="60" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B60" s="10"/>
       <c r="C60" s="6">
         <v>3</v>
@@ -8440,7 +8739,7 @@
       </c>
       <c r="T60" s="11"/>
     </row>
-    <row r="61" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B61" s="10"/>
       <c r="C61" s="6">
         <v>5</v>
@@ -8489,7 +8788,7 @@
       </c>
       <c r="T61" s="11"/>
     </row>
-    <row r="62" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:20" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B62" s="12" t="s">
         <v>8</v>
       </c>
@@ -8546,12 +8845,426 @@
       </c>
       <c r="T62" s="14"/>
     </row>
-    <row r="73" ht="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" spans="13:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E65" s="22">
+        <v>312.76</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E66" s="22">
+        <v>312.14</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E67" s="22">
+        <v>270.89999999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B68" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="6">
+        <v>0</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E68" s="22">
+        <v>90.838489532470703</v>
+      </c>
+      <c r="F68">
+        <f>(E68-$E$65)/$E$65</f>
+        <v>-0.70955848084003481</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B69" s="10"/>
+      <c r="C69" s="6">
+        <v>1</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E69" s="22">
+        <v>315.25988197326598</v>
+      </c>
+      <c r="F69">
+        <f t="shared" ref="F69:F92" si="10">(E69-$E$65)/$E$65</f>
+        <v>7.9929721616126912E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B70" s="10"/>
+      <c r="C70" s="6">
+        <v>2</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E70" s="22">
+        <v>73.556386947631793</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="10"/>
+        <v>-0.7648152354916492</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B71" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E71" s="22">
+        <v>89.991201400756793</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="10"/>
+        <v>-0.71226754891687949</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B72" s="10"/>
+      <c r="C72" s="6">
+        <v>1</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E72" s="22">
+        <v>131.16611099243099</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="10"/>
+        <v>-0.58061737117140622</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="6">
+        <v>0</v>
+      </c>
+      <c r="D73" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E73" s="22">
+        <v>260.66686439514098</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="10"/>
+        <v>-0.16655945646776768</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B74" s="10"/>
+      <c r="C74" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D74" s="6"/>
+      <c r="E74" s="22">
+        <v>100.578533172607</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="10"/>
+        <v>-0.67841625152638763</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B75" s="10"/>
+      <c r="C75" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="D75" s="6"/>
+      <c r="E75" s="22">
+        <v>154.760343551635</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="10"/>
+        <v>-0.50517859204618554</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B76" s="10"/>
+      <c r="C76" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D76" s="6"/>
+      <c r="E76" s="22">
+        <v>287.58506584167401</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="10"/>
+        <v>-8.0492819281001354E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B77" s="10"/>
+      <c r="C77" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="D77" s="6"/>
+      <c r="E77" s="22">
+        <v>421.61192131042401</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="10"/>
+        <v>0.34803658175733476</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B78" s="10"/>
+      <c r="C78" s="6">
+        <v>1</v>
+      </c>
+      <c r="D78" s="6"/>
+      <c r="E78" s="22">
+        <v>457.02123451232899</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="10"/>
+        <v>0.46125218861852219</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B79" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="6">
+        <v>1</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E79" s="22">
+        <v>200.856367111206</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="10"/>
+        <v>-0.35779394068549047</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B80" s="10"/>
+      <c r="C80" s="6">
+        <v>2</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E80" s="22">
+        <v>365.24200248718199</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="10"/>
+        <v>0.16780279603268322</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B81" s="10"/>
+      <c r="C81" s="6">
+        <v>3</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E81" s="22">
+        <v>256.265235900878</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="10"/>
+        <v>-0.18063295849572195</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B82" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="6">
+        <v>1</v>
+      </c>
+      <c r="D82" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E82" s="22">
+        <v>497.73002433776799</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="10"/>
+        <v>0.59141202307765695</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B83" s="10"/>
+      <c r="C83" s="6">
+        <v>2</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E83" s="22">
+        <v>3600.0623779296802</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="10"/>
+        <v>10.510622771229313</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B84" s="10"/>
+      <c r="C84" s="6">
+        <v>3</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E84" s="22">
+        <v>238.171077728271</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="10"/>
+        <v>-0.23848613080869993</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B85" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="6">
+        <v>0</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E85" s="22">
+        <v>1934.511844635</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="10"/>
+        <v>5.1852917401042333</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B86" s="10"/>
+      <c r="C86" s="6">
+        <v>1</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E86" s="22">
+        <v>295.38286781311001</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="10"/>
+        <v>-5.5560596581691969E-2</v>
+      </c>
       <c r="M86" s="6"/>
       <c r="N86" s="6"/>
     </row>
-    <row r="107" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B87" s="10"/>
+      <c r="C87" s="6">
+        <v>2</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E87" s="22">
+        <v>314.30330276489201</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="10"/>
+        <v>4.9344633741271867E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B88" s="10"/>
+      <c r="C88" s="6">
+        <v>3</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E88" s="22">
+        <v>453.67033958435002</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="10"/>
+        <v>0.45053823885519256</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B89" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" s="6">
+        <v>1</v>
+      </c>
+      <c r="D89" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E89" s="22">
+        <v>490.14995956420898</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="10"/>
+        <v>0.56717598018995075</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B90" s="10"/>
+      <c r="C90" s="6">
+        <v>3</v>
+      </c>
+      <c r="D90" s="6"/>
+      <c r="E90" s="22">
+        <v>285.46447753906199</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="10"/>
+        <v>-8.7273060688508777E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B91" s="10"/>
+      <c r="C91" s="6">
+        <v>5</v>
+      </c>
+      <c r="D91" s="6"/>
+      <c r="E91" s="22">
+        <v>184.54610824584901</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="10"/>
+        <v>-0.40994338072052366</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B92" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="13">
+        <v>0</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E92" s="22">
+        <v>79.6397190093994</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="10"/>
+        <v>-0.74536475569318517</v>
+      </c>
+    </row>
+    <row r="107" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D107">
         <v>0.19735482719160585</v>
       </c>
@@ -8562,7 +9275,7 @@
         <v>0.12663055089719005</v>
       </c>
     </row>
-    <row r="108" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D108">
         <v>-0.66982483539292692</v>
       </c>
@@ -8573,7 +9286,7 @@
         <v>3.3804199759136629E-2</v>
       </c>
     </row>
-    <row r="109" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D109">
         <v>0.50312212941969814</v>
       </c>
@@ -8584,7 +9297,7 @@
         <v>5.885136964844186</v>
       </c>
     </row>
-    <row r="110" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D110">
         <v>0.14930846501907502</v>
       </c>
@@ -8598,7 +9311,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F7:F31">
-    <cfRule type="colorScale" priority="25">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8610,7 +9323,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7:O31">
-    <cfRule type="colorScale" priority="23">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8622,7 +9335,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P7:P31">
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8634,6 +9347,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38:G62">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7:E31">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -8645,7 +9370,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7:E31">
+  <conditionalFormatting sqref="E38:E62">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -8657,8 +9382,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E38:E62">
-    <cfRule type="colorScale" priority="19">
+  <conditionalFormatting sqref="Z7:Z31">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8669,7 +9394,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z7:Z31">
+  <conditionalFormatting sqref="Y7:Y31">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -8681,20 +9406,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y7:Y31">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="P38:P62">
-    <cfRule type="colorScale" priority="11">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8706,6 +9419,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O38:O62">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V7:V24">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -8717,19 +9442,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V7:V24">
-    <cfRule type="colorScale" priority="12">
+  <conditionalFormatting sqref="F38:F62">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38:F62">
+  <conditionalFormatting sqref="H38:H62">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -8741,20 +9466,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38:H62">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="R7:R31">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8766,7 +9479,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107:F110">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8774,6 +9487,18 @@
         <color rgb="FF5A8AC6"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F68:F92">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -8785,30 +9510,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002BFB58-BB53-4096-A613-F9D70CC90BE7}">
   <dimension ref="B2:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="12" max="12" width="10.125" customWidth="1"/>
+    <col min="12" max="12" width="10.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" t="s">
         <v>82</v>
       </c>
-      <c r="K2" t="s">
-        <v>83</v>
-      </c>
       <c r="L2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>13</v>
       </c>
@@ -8844,7 +9569,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>1</v>
       </c>
@@ -8873,7 +9598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C5">
         <v>2</v>
       </c>
@@ -8902,7 +9627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -8938,7 +9663,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>1</v>
       </c>
@@ -8967,7 +9692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -9003,7 +9728,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>0.1</v>
       </c>
@@ -9032,7 +9757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>0.3</v>
       </c>
@@ -9061,7 +9786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>0.5</v>
       </c>
@@ -9090,7 +9815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C12">
         <v>0.7</v>
       </c>
@@ -9119,7 +9844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>1</v>
       </c>
@@ -9148,7 +9873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>9</v>
       </c>
@@ -9184,7 +9909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C15">
         <v>2</v>
       </c>
@@ -9213,7 +9938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C16">
         <v>3</v>
       </c>
@@ -9242,7 +9967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>6</v>
       </c>
@@ -9278,7 +10003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>2</v>
       </c>
@@ -9307,7 +10032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C19">
         <v>3</v>
       </c>
@@ -9336,7 +10061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>1</v>
       </c>
@@ -9372,7 +10097,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="6"/>
       <c r="C21" s="6">
         <v>1</v>
@@ -9403,7 +10128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C22">
         <v>2</v>
       </c>
@@ -9432,7 +10157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C23">
         <v>3</v>
       </c>
@@ -9461,7 +10186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>7</v>
       </c>
@@ -9497,7 +10222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C25">
         <v>3</v>
       </c>
@@ -9526,7 +10251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C26">
         <v>5</v>
       </c>
@@ -9555,7 +10280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>8</v>
       </c>
@@ -9680,7 +10405,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9695,59 +10420,59 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
+    <col min="1" max="1" width="13.08203125" customWidth="1"/>
+    <col min="4" max="4" width="18.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="D2" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="E2" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="F2" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="G2" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="H2" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="22" t="s">
+      <c r="J2" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="K2" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="L2" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="M2" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="M2" s="22" t="s">
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="22" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B3" s="22" t="s">
-        <v>69</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E3">
         <v>38.3333333333333</v>
@@ -9768,21 +10493,21 @@
       <c r="L3" s="22"/>
       <c r="M3" s="22"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="D4" s="22" t="s">
         <v>70</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>71</v>
       </c>
       <c r="E4" s="22">
         <v>38.101299590000004</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G4" s="22">
         <v>3.883338213</v>
@@ -9807,21 +10532,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E5" s="22">
         <v>38.101299590000004</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G5" s="22">
         <v>7.1933777330000002</v>
@@ -9846,21 +10571,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E6" s="22">
         <v>38.101332235455601</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G6" s="22">
         <v>2.5922760963439901</v>
@@ -9885,21 +10610,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E7" s="22">
         <v>38.101299590219703</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G7" s="22">
         <v>4.94592237472534</v>
@@ -9924,7 +10649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E11" s="1"/>
     </row>
   </sheetData>

--- a/results/benmark记录(new).xlsx
+++ b/results/benmark记录(new).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\github\wsb_meta\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424B09A3-A232-4305-A88E-23CE6EBEF700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F753CB00-95C5-4D19-AFAE-B595EB22A0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="85">
   <si>
     <t>30n20b8</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -874,7 +874,7 @@
   <dimension ref="A1:V90"/>
   <sheetViews>
     <sheetView topLeftCell="G62" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M66" sqref="M66:O90"/>
+      <selection activeCell="M61" sqref="M61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5480,8 +5480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFD65E3-8934-424F-8DF5-5D613ABC58CA}">
   <dimension ref="B1:AC110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8844,6 +8844,12 @@
         <v>0</v>
       </c>
       <c r="T62" s="14"/>
+    </row>
+    <row r="63" spans="2:20" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="2:20" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="15" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E65" s="22">

--- a/results/benmark记录(new).xlsx
+++ b/results/benmark记录(new).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\github\wsb_meta\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F753CB00-95C5-4D19-AFAE-B595EB22A0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2856362-34C2-4B8F-B3E8-687D588172B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gurobi结果" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="87">
   <si>
     <t>30n20b8</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -353,6 +353,14 @@
   </si>
   <si>
     <t>traininstance2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非benchmark</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -873,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V90"/>
   <sheetViews>
-    <sheetView topLeftCell="G62" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M61" sqref="M61"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2500,7 +2508,9 @@
       <c r="C31" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="16"/>
+      <c r="D31" s="16" t="s">
+        <v>85</v>
+      </c>
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
@@ -2514,8 +2524,12 @@
       <c r="N31" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
+      <c r="O31" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="P31" s="16" t="s">
+        <v>86</v>
+      </c>
       <c r="Q31" s="16"/>
       <c r="R31" s="16"/>
       <c r="S31" s="16"/>
@@ -5480,7 +5494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFD65E3-8934-424F-8DF5-5D613ABC58CA}">
   <dimension ref="B1:AC110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView topLeftCell="A61" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="E4" sqref="E4:E31"/>
     </sheetView>
   </sheetViews>

--- a/results/benmark记录(new).xlsx
+++ b/results/benmark记录(new).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\github\wsb_meta\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2856362-34C2-4B8F-B3E8-687D588172B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7EA4008-FA21-45D8-A516-BC10FC3A0BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="360" yWindow="360" windowWidth="21580" windowHeight="13660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gurobi结果" sheetId="1" r:id="rId1"/>
@@ -881,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M61" sqref="M61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/results/benmark记录(new).xlsx
+++ b/results/benmark记录(new).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\github\wsb_meta\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7EA4008-FA21-45D8-A516-BC10FC3A0BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0F03A3-6CE0-49C8-B64A-2B53A2502761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="360" yWindow="360" windowWidth="21580" windowHeight="13660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gurobi结果" sheetId="1" r:id="rId1"/>
@@ -881,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M61" sqref="M61"/>
+    <sheetView topLeftCell="F13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q93" sqref="Q93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9530,8 +9530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002BFB58-BB53-4096-A613-F9D70CC90BE7}">
   <dimension ref="B2:M27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9573,7 +9573,7 @@
         <v>0.14930846501907502</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J27" si="0">(E3+F3+G3+H3)/4</f>
+        <f>(E3+F3+G3+H3)/4</f>
         <v>4.4990146559363023E-2</v>
       </c>
       <c r="K3">
@@ -9606,7 +9606,7 @@
         <v>7.3944460326694827E-2</v>
       </c>
       <c r="J4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J3:J27" si="0">(E4+F4+G4+H4)/4</f>
         <v>1.8061098122153301</v>
       </c>
       <c r="K4">
